--- a/数据库表/ai_test.xlsx
+++ b/数据库表/ai_test.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AixlProject\AiWeb\数据库表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4277A1A1-9783-47EB-89AC-50602241BF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ai_test" sheetId="1" r:id="rId2"/>
+    <sheet name="ai_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>ai_scale_id</t>
   </si>
@@ -163,16 +170,273 @@
   </si>
   <si>
     <t>B部分测试</t>
+  </si>
+  <si>
+    <t>单词记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词回忆任务&amp;第一套</t>
+  </si>
+  <si>
+    <t>我现在给您出示一些单词，然后请您回忆这些单词，并告诉我您能记住的那些单词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能回忆的单词数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液$帐篷$棉花$火$大厅$实验室$植物$河流$蒸汽$玩具&amp;植物$火$血液$大厅$帐篷$棉花$蒸汽$实验室$河流$玩具&amp;棉花$火$帐篷$实验室$植物$河流$玩具$蒸汽$血液$大厅</t>
+  </si>
+  <si>
+    <t>单词回忆任务&amp;第二套</t>
+  </si>
+  <si>
+    <t>花&amp;沙发&amp;哨子&amp;铅笔&amp;毽子&amp;假面具&amp;剪刀&amp;梳子&amp;钱夹&amp;口琴&amp;听诊器&amp;钳子&amp;拇指&amp;小手指&amp;食指&amp;中指&amp;无名指</t>
+  </si>
+  <si>
+    <t>物品命名不正确数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我给您看一些实物及利用您的手指，请您说出它的名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名物体或手指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面请您做几个动作，请您按我的指令去做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭$硬币$铁路$儿童$军队$旗子$皮肤$图书馆$妻子$海洋&amp;皮肤$儿童$家庭$军队$硬币$铁路$妻子$旗子$图书馆$海洋&amp;铁路$儿童$硬币$旗子$皮肤$图书馆$海洋$妻子$家庭$军队</t>
+  </si>
+  <si>
+    <t>物品线索:&amp;高频率词:$花（假花）———长在花园里的$沙发（玩具中的家具）———用于坐的$哨子———吹的时候能发出声音$铅笔———用来写字的&amp;中频率词:$毽子———小朋友踢的玩具$假面具———挡脸的$梳子———用在头发上的&amp;低频率词:$钱包———装钞票用的$口琴———一种乐器$听诊器———医生用来检查您心脏的$夹子———用来拿食物的</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4&amp;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：出示10张词卡，嘱被试人大声朗读并记忆，如被试人不认识可以告知单词，每个单词出示2秒钟，读完10个单词后让被试回忆所读单词，记录未能回忆的单词数。共出示3套，取3套平均数，最高10分，测试2次间隔&lt;6个月，换用第二套量表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：出示12件实物加五个手指，要求被试命名12件实物及其主利的手指，即：拇指、小手指、食指、中指和无名指。每件物品的第一个问题应该是“这叫什么？”或“这件东西的名称是什么？”如果被试没有回答，那么，测试者应该提供该物品的线索，如果被试仍未回答，或回答错误，则继续下一件物品。若被试的答案被其所处文化背景所接受，则应评定为正确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  握拳&amp;2  指天花板，然后指向地面&amp;3  将铅笔放在卡片的上面，然后将其放回去&amp;4  把手表放在铅笔的另一边，并且把卡片翻过来&amp;5  用一只手的两个手指在每一边肩膀上各拍两下，同时要一直闭着眼睛评定语言理解能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1项指令错误&amp;2项指令错误&amp;3项指令错误&amp;4项指令错误&amp;5项指令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求被试执行1～5步指令。每一指令只读一次。如果被试没有回答，或回答错误，则测试者应该把整个指令再说一遍，但不能给分。然后继续下一项指令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这纸上有一幅图。请试着在这页纸的其他地方再画一幅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价视空间觉能力，从简单（圆）到复杂（立方体）。每次出示一幅图。每幅图允许被试有有两次机会，可使用橡皮。如两次均未能复制出，则应继续下一副图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四幅图全部正确&amp;1幅图错误&amp;2幅图错误&amp;3幅图错误&amp;4幅图错误&amp;未画图；在图上描；只有一部分图形；用文字代替图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0&amp;1&amp;2&amp;3&amp;4&amp;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：&amp;圆形：封闭的曲线图形。直径大约2.0cm。&amp;两个重叠的矩形：一个垂直，一个水平，每个图必须为四条边，重叠部分必须与示范图形相似。尺寸大小不同不算错。&amp;菱形：长轴垂直的菱形图形必须为四条边，方向明显，顶角分别在顶部和底部，四条边的长度必须近似。&amp;立方体：图形必须是三维结构，其正面的方向应该正确，内部线条必须正确连于顶角之间。背面的线条应该近似平行。&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一封写给您的信。请您将这张纸折叠起来，以便能装进信封，然后把纸放进信封内；再将信封封口，在信封上写上您自己的地址，然后告诉我邮票贴在哪儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠信&amp;将信放进信封内&amp;将信封封口&amp;在信封上写地址&amp;在贴邮票处作标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意象性练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤全部正确&amp;1步错误&amp;2步错误&amp;3步错误&amp;4步错误&amp;5步错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：判断被试能否操作一项熟悉但复杂的动作程序。如果被试忘了部分要求，或遇到困难，则应将遇到困难的那一步的指令重复一次。若被试不会做，那么请继续往下，提醒再下一步的指令。第一次完整的指令之后，每一步指令只能再提醒一次。该项测验只反映执行一项熟悉任务时的功能障碍，而不反映回忆困难。任何一个能让邮递员把信投寄出去的地址都算对，即使改地址可能不是被试目前住的地址。地址应该包括：省份、城市、街道和姓名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物（问被试叫什么名字）&amp;星期&amp;日期（+/-一天）&amp;月份&amp;年份&amp;季节（季节变换前1周/后2周）&amp;一天中的钟点（误差在1小时内）&amp;地点（部分命名也可接受）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词辨认任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我现在给您出示一些单词。我希望您大声读出来，并尽量记住。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：如果被试不会读，测试者应将这个单词大声说出来。但是，很重的一点是，被试应该确实看着这个单词，并尽全力读出来。试验的学习部分结束时，测试者应对被试这样说：现在我将给您看另一套单词，其中一些是我刚才给您看过的单词，还有一个些是您没看过的单词。请您告诉我，哪些单词看过，哪些单词没看过。然后一边测试一边问：“这个单词是我刚才给您看过的吗？是不是？”或者说“刚才我给您看过这个单词吗？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂静$女儿$前额$老虎$黎明$乞丐$回声$村庄$角落$勇气$容器$物体&amp;寂静$肘$女儿$粉末$运河$前额$老虎$黎明$龙$卧室$姐姐$乞丐$回声$侄子$义务$村庄$角落$橄榄树$音乐$勇气$容器$丝带$物体$项链&amp;气泡$角落$珠宝$淋浴器$村庄$前额$寂静$老虎$会议$容器$汽车$洋葱$乞丐$警报$回声$勇气$女儿$物体$器官$饮料$水盆$夹克$黎明$市长&amp;猴子$寂静$岛屿$季节$黎明$针$回声$牛$角落$王国$老虎$物体$乞丐$喷泉$村庄$人民$猎人$前额$投手$容器$女儿$勇气$贝壳$百合</t>
+  </si>
+  <si>
+    <t>计算每次测试中回答错误的数目，但每次测试中仅允许最大错误分为12分。评分等于三次测试中回答错误的平均数。如果两次测试间隔小于6个月，则应使用第二套测试单词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆测验指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评定被试能记住辨认任务中的要求的能力。每一次辨认测验中，出示头两个单词之前都要问被试：“您以前看过这个单词吗，或者这个单词是新词吗？”到第三个单词时，问：“这个呢？”如果被试回答恰当（即：“是”或“否”），那么指令的回忆是准确的。如果被试未能作出应答，则表示忘记了指令。然后重复指令。询问4～24个单词时都重复对第三个单词的问法。记录忘记指令的次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被试从不需要额外提醒指令&amp;忘记1次&amp;必须提醒2次&amp;必须提醒3次或4次&amp;必须提醒5次或6次&amp;必须提醒7次或7次以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影响&amp;很轻&amp;轻度&amp;中度&amp;中重度&amp;重度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头语言能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评定语言理解能力，对言语质量进行总体评定，即：清晰性以及言语是否存在可理解性困难。注意：高分（4～5分）只评定表述性语言能力受损，以致几乎无法顺畅交流的被试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有难以理解被试的情况&amp;有一次缺乏可理解性的情况&amp;被试存在可理解性困难的时间少于25%&amp;被试在25%～50%的时间内存在言语可理解性困难&amp;被试在50%以上的时间存在言语可理解性困难&amp;说一两个词即中断；说话虽然流利，但内容空洞；缄默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找词困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头语言理解能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评定词语能力，检测被试的表述性言语损害，但仅评定找词困难。不包括手指和物体命名评定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无&amp;出现一两次，不具临床意义&amp;明显的赘述或用同义词替代&amp;偶尔缺词，且无替代词&amp;频繁缺词，且无替代词&amp;几乎完全缺乏有内容的单词；语言听起来空洞；说一两个次即中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评定语言的理解的能力。不包括对指令的反映。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者能理解&amp;有一次理解错误的情况&amp;3～5次理解错误的情况&amp;需要多次重复和改述&amp;仅偶尔正确回答；也就是说，只回答“是”或“否”&amp;患者极少对问题作出恰当反应；而且并非因言语贫乏所致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评定被无关刺激分散注意力和（或）由于思绪不畅或被试沉湎与自己的思维中而需要再次告知正在进行的任务的频率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无&amp;有1次注意力不集中&amp;有2～3次注意力不集中；出现坐立不安/心不在焉的表现&amp;访谈过程中有4～5次注意力不集中&amp;访谈过程中很多时候注意力不集中和（或）经常注意力涣散&amp;及其难以集中注意力和注意力及其容易转移；无法完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词辨认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词回忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,306 +459,1098 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="30.7109375" style="1"/>
+    <col min="9" max="9" width="43.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="30.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="27">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
+    <row r="2" spans="1:13" ht="54">
+      <c r="A2" s="2">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="54">
+      <c r="A3" s="2">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="54">
+      <c r="A4" s="2">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="108">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="54">
+      <c r="A6" s="2">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="121.5">
+      <c r="A7" s="2">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="108">
+      <c r="A8" s="2">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="121.5">
+      <c r="A9" s="2">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="108">
+      <c r="A10" s="2">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="216">
+      <c r="A11" s="2">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="81">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="81">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="162">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="67.5">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="135">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="148.5">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="40.5">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="148.5">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="108">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="108">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="81">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="94.5">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="108">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据库表/ai_test.xlsx
+++ b/数据库表/ai_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AixlProject\AiWeb\数据库表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4277A1A1-9783-47EB-89AC-50602241BF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398963EB-6FAE-405C-AD5E-20D566D93435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>家庭$硬币$铁路$儿童$军队$旗子$皮肤$图书馆$妻子$海洋&amp;皮肤$儿童$家庭$军队$硬币$铁路$妻子$旗子$图书馆$海洋&amp;铁路$儿童$硬币$旗子$皮肤$图书馆$海洋$妻子$家庭$军队</t>
   </si>
   <si>
-    <t>物品线索:&amp;高频率词:$花（假花）———长在花园里的$沙发（玩具中的家具）———用于坐的$哨子———吹的时候能发出声音$铅笔———用来写字的&amp;中频率词:$毽子———小朋友踢的玩具$假面具———挡脸的$梳子———用在头发上的&amp;低频率词:$钱包———装钞票用的$口琴———一种乐器$听诊器———医生用来检查您心脏的$夹子———用来拿食物的</t>
-  </si>
-  <si>
     <t>1&amp;2&amp;3&amp;4&amp;5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,6 +411,10 @@
   </si>
   <si>
     <t>理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品线索:&amp;高频率词:$花（假花）———长在花园里的$沙发（玩具中的家具）———用于坐的$哨子———吹的时候能发出声音$铅笔———用来写字的&amp;中频率词:$毽子———小朋友踢的玩具$假面具———挡脸的$剪刀———可以把纸分开$梳子———用在头发上的&amp;低频率词:$钱包———装钞票用的$口琴———一种乐器$听诊器———医生用来检查您心脏的$夹子———用来拿食物的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -1161,7 +1162,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>52</v>
@@ -1192,7 +1193,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>52</v>
@@ -1203,7 +1204,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="162">
+    <row r="14" spans="1:13" ht="175.5">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1223,13 +1224,13 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>60</v>
@@ -1244,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1255,10 +1256,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>62</v>
@@ -1277,28 +1278,28 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="2"/>
     </row>
@@ -1310,28 +1311,28 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -1343,22 +1344,22 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M18" s="2"/>
     </row>
@@ -1370,26 +1371,26 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -1401,26 +1402,26 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M20" s="2"/>
     </row>
@@ -1432,26 +1433,26 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M21" s="2"/>
     </row>
@@ -1463,26 +1464,26 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -1494,26 +1495,26 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -1525,26 +1526,26 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M24" s="2"/>
     </row>

--- a/数据库表/ai_test.xlsx
+++ b/数据库表/ai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AixlProject\AiWeb\数据库表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398963EB-6FAE-405C-AD5E-20D566D93435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D9B569-E70F-492E-8F25-3A6E6A5CD330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>单词回忆任务&amp;第二套</t>
   </si>
   <si>
-    <t>花&amp;沙发&amp;哨子&amp;铅笔&amp;毽子&amp;假面具&amp;剪刀&amp;梳子&amp;钱夹&amp;口琴&amp;听诊器&amp;钳子&amp;拇指&amp;小手指&amp;食指&amp;中指&amp;无名指</t>
-  </si>
-  <si>
     <t>物品命名不正确数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +412,10 @@
   </si>
   <si>
     <t>物品线索:&amp;高频率词:$花（假花）———长在花园里的$沙发（玩具中的家具）———用于坐的$哨子———吹的时候能发出声音$铅笔———用来写字的&amp;中频率词:$毽子———小朋友踢的玩具$假面具———挡脸的$剪刀———可以把纸分开$梳子———用在头发上的&amp;低频率词:$钱包———装钞票用的$口琴———一种乐器$听诊器———医生用来检查您心脏的$夹子———用来拿食物的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花&amp;沙发&amp;哨子&amp;铅笔&amp;毽子&amp;假面具&amp;剪刀&amp;梳子&amp;钱包&amp;口琴&amp;听诊器&amp;夹子&amp;拇指&amp;小手指&amp;食指&amp;中指&amp;无名指</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -1150,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>53</v>
@@ -1162,7 +1163,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>52</v>
@@ -1193,7 +1194,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>52</v>
@@ -1212,28 +1213,28 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="2"/>
     </row>
@@ -1245,28 +1246,28 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="2"/>
     </row>
@@ -1278,28 +1279,28 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" s="2"/>
     </row>
@@ -1311,28 +1312,28 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -1344,22 +1345,22 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" s="2"/>
     </row>
@@ -1371,26 +1372,26 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -1402,26 +1403,26 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M20" s="2"/>
     </row>
@@ -1433,26 +1434,26 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M21" s="2"/>
     </row>
@@ -1464,26 +1465,26 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -1495,26 +1496,26 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -1526,26 +1527,26 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M24" s="2"/>
     </row>

--- a/数据库表/ai_test.xlsx
+++ b/数据库表/ai_test.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AixlProject\AiWeb\数据库表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54305B7-E809-4EF2-808C-F9EEA2AAA907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ai_test" sheetId="1" r:id="rId2"/>
+    <sheet name="ai_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="132">
   <si>
     <t>ai_scale_id</t>
   </si>
@@ -55,12 +62,6 @@
   </si>
   <si>
     <t>ai_scale_name</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1000</t>
   </si>
   <si>
     <t>100</t>
@@ -420,11 +421,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -451,17 +458,327 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,729 +822,680 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>5</v>
-      </c>
       <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" t="s">
         <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
       </c>
       <c r="L15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="N16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" t="s">
-        <v>86</v>
-      </c>
       <c r="L17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
         <v>84</v>
       </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" t="s">
-        <v>86</v>
-      </c>
       <c r="L19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" t="s">
         <v>84</v>
       </c>
-      <c r="H20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" t="s">
-        <v>97</v>
-      </c>
       <c r="L20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>105</v>
+      </c>
+      <c r="K21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
       <c r="J24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>115</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>120</v>
+      </c>
+      <c r="L26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>124</v>
+      </c>
+      <c r="L27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" t="s">
-        <v>129</v>
-      </c>
-      <c r="L30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" t="s">
         <v>131</v>
       </c>
-      <c r="J31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" t="s">
-        <v>133</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>